--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_22_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_22_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -593,7 +593,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -763,7 +763,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1038,7 +1038,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1211,7 +1211,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1489,7 +1489,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1657,7 +1657,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -10816,7 +10816,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -10831,7 +10831,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -11077,7 +11077,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCEAN NETWORK EXPRESS </t>
         </is>
       </c>
     </row>

--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_22_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_22_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,103 +461,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,15 +575,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -597,103 +600,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,13 +714,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -733,31 +729,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -767,234 +763,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1017,15 +1016,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1042,103 +1041,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,13 +1155,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1177,35 +1169,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1215,237 +1207,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1468,15 +1478,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1493,103 +1503,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,13 +1617,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1628,30 +1631,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="23.98988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="36.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="39.389887640449444"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="20.68988764044944"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="false" customWidth="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1661,189 +1664,307 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Laden Container Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:82</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>8998</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>NYKU4222392</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>ONB</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>KOTA ARIF</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2039/2018</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>A A COARSE SPUN LTD</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>A1430991</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2018-11726</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2018-07-09T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2018-07-14T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>ONEYRICU47796600</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8998</v>
+        <v>8999</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>NYKU4222392</t>
+          <t>TCNU8265589</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1903,13 +2024,13 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>A1430991</t>
+          <t>A1361875</t>
         </is>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>2018-11726</t>
+          <t>2018-11730</t>
         </is>
       </c>
       <c r="W8" s="0" t="d">
@@ -1918,12 +2039,12 @@
       <c r="X8" s="0" t="d">
         <v>2018-07-14T00:00:00</v>
       </c>
-      <c r="Y8" s="0" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -1949,11 +2070,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8999</v>
+        <v>9000</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>TCNU8265589</t>
+          <t>TEMU8903066</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2013,27 +2134,27 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>A1361875</t>
+          <t>A1430965</t>
         </is>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>2018-11730</t>
+          <t>2018-11822</t>
         </is>
       </c>
       <c r="W9" s="0" t="d">
         <v>2018-07-09T00:00:00</v>
       </c>
       <c r="X9" s="0" t="d">
-        <v>2018-07-14T00:00:00</v>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
+        <v>2018-07-16T00:00:00</v>
+      </c>
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2059,11 +2180,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>TEMU8903066</t>
+          <t>TCNU3084865</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2123,13 +2244,13 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>A1430965</t>
+          <t>A1430957</t>
         </is>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2018-11822</t>
+          <t>2018-11845</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2138,12 +2259,12 @@
       <c r="X10" s="0" t="d">
         <v>2018-07-16T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2169,11 +2290,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>TCNU3084865</t>
+          <t>TCNU8689735</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2233,13 +2354,13 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>A1430957</t>
+          <t>A1361876</t>
         </is>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2018-11845</t>
+          <t>2018-11844</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2248,12 +2369,12 @@
       <c r="X11" s="0" t="d">
         <v>2018-07-16T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2279,11 +2400,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9002</v>
+        <v>9003</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>TCNU8689735</t>
+          <t>NYKU4310512</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2343,27 +2464,27 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>A1361876</t>
+          <t>A1361844</t>
         </is>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2018-11844</t>
+          <t>2018-11725</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
         <v>2018-07-09T00:00:00</v>
       </c>
       <c r="X12" s="0" t="d">
-        <v>2018-07-16T00:00:00</v>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
+        <v>2018-07-17T00:00:00</v>
+      </c>
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2389,11 +2510,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NYKU4310512</t>
+          <t>MOTU6707799</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2453,13 +2574,13 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>A1361844</t>
+          <t>A1361862</t>
         </is>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2018-11725</t>
+          <t>2018-11850</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
@@ -2468,12 +2589,12 @@
       <c r="X13" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
-      <c r="Y13" s="0" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2499,11 +2620,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9004</v>
+        <v>9034</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MOTU6707799</t>
+          <t>TCNU4831841</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2531,12 +2652,12 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>KOTA ARIF</t>
+          <t>HORAI BRIDGE</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>2039/2018</t>
+          <t>2278/2018</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
@@ -2563,27 +2684,27 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>A1361862</t>
+          <t>UL1538950</t>
         </is>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2018-11850</t>
+          <t>2018-12761</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
-        <v>2018-07-09T00:00:00</v>
+        <v>2018-07-29T00:00:00</v>
       </c>
       <c r="X14" s="0" t="d">
-        <v>2018-07-17T00:00:00</v>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
+        <v>2018-07-29T00:00:00</v>
+      </c>
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2593,11 +2714,11 @@
       </c>
       <c r="AB14" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU47796600</t>
+          <t>ONEYRICU66956500</t>
         </is>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="AD14" s="0"/>
       <c r="AE14" s="0" t="inlineStr">
@@ -2609,11 +2730,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9034</v>
+        <v>9035</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>TCNU4831841</t>
+          <t>FSCU6294283</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2673,27 +2794,27 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>UL1538950</t>
+          <t>UL1538948</t>
         </is>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2018-12761</t>
+          <t>2018-12763</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="X15" s="0" t="d">
-        <v>2018-07-29T00:00:00</v>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
+        <v>2018-07-30T00:00:00</v>
+      </c>
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2719,11 +2840,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9035</v>
+        <v>9036</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>FSCU6294283</t>
+          <t>CAIU8788354</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2783,13 +2904,13 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>UL1538948</t>
+          <t>UL1538920</t>
         </is>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2018-12763</t>
+          <t>2018-12783</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
@@ -2798,12 +2919,12 @@
       <c r="X16" s="0" t="d">
         <v>2018-07-30T00:00:00</v>
       </c>
-      <c r="Y16" s="0" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2829,11 +2950,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9036</v>
+        <v>9037</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>CAIU8788354</t>
+          <t>TCNU5946737</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2893,27 +3014,27 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>UL1538920</t>
+          <t>UL1538922</t>
         </is>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2018-12783</t>
+          <t>2018-12853</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="X17" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
+        <v>2018-07-31T00:00:00</v>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2939,11 +3060,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9037</v>
+        <v>9038</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>TCNU5946737</t>
+          <t>TCLU5145561</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3003,27 +3124,27 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>UL1538922</t>
+          <t>UL1538949</t>
         </is>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2018-12853</t>
+          <t>2018-12885</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="X18" s="0" t="d">
-        <v>2018-07-31T00:00:00</v>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
+        <v>2018-08-01T00:00:00</v>
+      </c>
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3049,11 +3170,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9038</v>
+        <v>9039</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>TCLU5145561</t>
+          <t>TCNU5615180</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3113,27 +3234,27 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>UL1538949</t>
+          <t>B1086555</t>
         </is>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>2018-12885</t>
+          <t>2018-12782</t>
         </is>
       </c>
       <c r="W19" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="X19" s="0" t="d">
-        <v>2018-08-01T00:00:00</v>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
+        <v>2018-07-30T00:00:00</v>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3143,11 +3264,11 @@
       </c>
       <c r="AB19" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU66956500</t>
+          <t>ONEYRICU66948600</t>
         </is>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="0" t="inlineStr">
@@ -3159,11 +3280,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9039</v>
+        <v>9207</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>TCNU5615180</t>
+          <t>TCNU5902678</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3191,17 +3312,17 @@
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>HORAI BRIDGE</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>2278/2018</t>
+          <t>2513/2018</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>RENATA LIMITED (TRADING DIVISION)</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3218,32 +3339,32 @@
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
         <is>
-          <t>B1086555</t>
+          <t>H5866830</t>
         </is>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>2018-12782</t>
+          <t>2018-14338</t>
         </is>
       </c>
       <c r="W20" s="0" t="d">
-        <v>2018-07-29T00:00:00</v>
+        <v>2018-09-01T00:00:00</v>
       </c>
       <c r="X20" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
+        <v>2018-09-02T00:00:00</v>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3253,11 +3374,11 @@
       </c>
       <c r="AB20" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU66948600</t>
+          <t>ONEYAKLU05581400</t>
         </is>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="AD20" s="0"/>
       <c r="AE20" s="0" t="inlineStr">
@@ -3269,19 +3390,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9207</v>
+        <v>9208</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>TCNU5902678</t>
+          <t>NYKU3655952</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3333,27 +3454,27 @@
       </c>
       <c r="T21" s="0" t="inlineStr">
         <is>
-          <t>H5866830</t>
+          <t>H5866821</t>
         </is>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>2018-14338</t>
+          <t>2018-14522</t>
         </is>
       </c>
       <c r="W21" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="X21" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3379,19 +3500,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9208</v>
+        <v>9229</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NYKU3655952</t>
+          <t>NYKU0826820</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -3411,17 +3532,17 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>2513/2018</t>
+          <t>2518/2018</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>RENATA LIMITED (TRADING DIVISION)</t>
+          <t>GAZI AUTO TYRES</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3438,32 +3559,32 @@
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>CARBON BLACK</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
         <is>
-          <t>H5866821</t>
+          <t>IN0010412</t>
         </is>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>2018-14522</t>
+          <t>2018-14384</t>
         </is>
       </c>
       <c r="W22" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
+        <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X22" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
+        <v>2018-09-02T00:00:00</v>
+      </c>
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3473,11 +3594,11 @@
       </c>
       <c r="AB22" s="0" t="inlineStr">
         <is>
-          <t>ONEYAKLU05581400</t>
+          <t>ONEYMAAU12050300</t>
         </is>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="AD22" s="0"/>
       <c r="AE22" s="0" t="inlineStr">
@@ -3489,11 +3610,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9229</v>
+        <v>9230</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NYKU0826820</t>
+          <t>TGHU6584700</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3553,13 +3674,13 @@
       </c>
       <c r="T23" s="0" t="inlineStr">
         <is>
-          <t>IN0010412</t>
+          <t>IN0010408</t>
         </is>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>2018-14384</t>
+          <t>2018-14389</t>
         </is>
       </c>
       <c r="W23" s="0" t="d">
@@ -3568,12 +3689,12 @@
       <c r="X23" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y23" s="0" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3599,11 +3720,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9230</v>
+        <v>9231</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>TGHU6584700</t>
+          <t>NYKU5752479</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3663,27 +3784,27 @@
       </c>
       <c r="T24" s="0" t="inlineStr">
         <is>
-          <t>IN0010408</t>
+          <t>IN0010438</t>
         </is>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>2018-14389</t>
+          <t>2018-14744</t>
         </is>
       </c>
       <c r="W24" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X24" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3709,11 +3830,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9231</v>
+        <v>9232</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NYKU5752479</t>
+          <t>TCLU1496640</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3773,13 +3894,13 @@
       </c>
       <c r="T25" s="0" t="inlineStr">
         <is>
-          <t>IN0010438</t>
+          <t>IN0010422</t>
         </is>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>2018-14744</t>
+          <t>2018-14745</t>
         </is>
       </c>
       <c r="W25" s="0" t="d">
@@ -3788,12 +3909,12 @@
       <c r="X25" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="Y25" s="0" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3819,11 +3940,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9232</v>
+        <v>9233</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>TCLU1496640</t>
+          <t>TCNU7737335</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3883,27 +4004,27 @@
       </c>
       <c r="T26" s="0" t="inlineStr">
         <is>
-          <t>IN0010422</t>
+          <t>IN0010426</t>
         </is>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>2018-14745</t>
+          <t>2018-15009</t>
         </is>
       </c>
       <c r="W26" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X26" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3929,11 +4050,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9233</v>
+        <v>9234</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TCNU7737335</t>
+          <t>TCLU6421860</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3993,13 +4114,13 @@
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>IN0010426</t>
+          <t>IN0010421</t>
         </is>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>2018-15009</t>
+          <t>2018-14353</t>
         </is>
       </c>
       <c r="W27" s="0" t="d">
@@ -4008,12 +4129,12 @@
       <c r="X27" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y27" s="0" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4039,11 +4160,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9234</v>
+        <v>9265</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TCLU6421860</t>
+          <t>TRLU8689655</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4051,7 +4172,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -4071,17 +4192,17 @@
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>2518/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>GAZI AUTO TYRES</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -4098,32 +4219,32 @@
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>CARBON BLACK</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
         <is>
-          <t>IN0010421</t>
+          <t>HLD5023900</t>
         </is>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>2018-14353</t>
+          <t>2018-14605</t>
         </is>
       </c>
       <c r="W28" s="0" t="d">
-        <v>2018-08-26T00:00:00</v>
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="X28" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4133,11 +4254,11 @@
       </c>
       <c r="AB28" s="0" t="inlineStr">
         <is>
-          <t>ONEYMAAU12050300</t>
+          <t>ONEYGOTU04027600</t>
         </is>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="AD28" s="0"/>
       <c r="AE28" s="0" t="inlineStr">
@@ -4149,11 +4270,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9265</v>
+        <v>9266</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>TRLU8689655</t>
+          <t>NYKU8112794</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4211,15 +4332,13 @@
           <t>ANIMAL FEED</t>
         </is>
       </c>
-      <c r="T29" s="0" t="inlineStr">
-        <is>
-          <t>HLD5023900</t>
-        </is>
+      <c r="T29" s="0" t="n">
+        <v>14486</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>2018-14605</t>
+          <t>2018-14679</t>
         </is>
       </c>
       <c r="W29" s="0" t="d">
@@ -4228,12 +4347,12 @@
       <c r="X29" s="0" t="d">
         <v>2018-09-04T00:00:00</v>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4259,15 +4378,15 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9266</v>
+        <v>9267</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>NYKU8112794</t>
+          <t>TCLU2431704</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
@@ -4322,26 +4441,26 @@
         </is>
       </c>
       <c r="T30" s="0" t="n">
-        <v>14486</v>
+        <v>14488</v>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>2018-14679</t>
+          <t>2018-14767</t>
         </is>
       </c>
       <c r="W30" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
       <c r="X30" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4367,19 +4486,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9267</v>
+        <v>9268</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>TCLU2431704</t>
+          <t>NYKU4021612</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -4399,17 +4518,17 @@
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t>2518/2018</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>GAZI AUTO TYRES</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -4426,30 +4545,32 @@
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
-        </is>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>14488</v>
+          <t>CARBON BLACK</t>
+        </is>
+      </c>
+      <c r="T31" s="0" t="inlineStr">
+        <is>
+          <t>IN0013407</t>
+        </is>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>2018-14767</t>
+          <t>2018-14618</t>
         </is>
       </c>
       <c r="W31" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
+        <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X31" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4459,11 +4580,11 @@
       </c>
       <c r="AB31" s="0" t="inlineStr">
         <is>
-          <t>ONEYGOTU04027600</t>
+          <t>ONEYMAAU11798700</t>
         </is>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="AD31" s="0"/>
       <c r="AE31" s="0" t="inlineStr">
@@ -4475,11 +4596,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9268</v>
+        <v>9269</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NYKU4021612</t>
+          <t>MOTU0748194</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4539,27 +4660,27 @@
       </c>
       <c r="T32" s="0" t="inlineStr">
         <is>
-          <t>IN0013407</t>
+          <t>IN0013402</t>
         </is>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>2018-14618</t>
+          <t>2018-14746</t>
         </is>
       </c>
       <c r="W32" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X32" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4585,11 +4706,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9269</v>
+        <v>9270</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>MOTU0748194</t>
+          <t>MOTU5807432</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4649,13 +4770,13 @@
       </c>
       <c r="T33" s="0" t="inlineStr">
         <is>
-          <t>IN0013402</t>
+          <t>IN0013480</t>
         </is>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>2018-14746</t>
+          <t>2018-14729</t>
         </is>
       </c>
       <c r="W33" s="0" t="d">
@@ -4664,12 +4785,12 @@
       <c r="X33" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="Y33" s="0" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4695,11 +4816,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9270</v>
+        <v>9271</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>MOTU5807432</t>
+          <t>NYKU5950290</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4759,27 +4880,27 @@
       </c>
       <c r="T34" s="0" t="inlineStr">
         <is>
-          <t>IN0013480</t>
+          <t>IN0013315</t>
         </is>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>2018-14729</t>
+          <t>2018-14624</t>
         </is>
       </c>
       <c r="W34" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X34" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4805,11 +4926,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9271</v>
+        <v>9272</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>NYKU5950290</t>
+          <t>CAIU9371128</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4869,13 +4990,13 @@
       </c>
       <c r="T35" s="0" t="inlineStr">
         <is>
-          <t>IN0013315</t>
+          <t>IN0013413</t>
         </is>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0" t="inlineStr">
         <is>
-          <t>2018-14624</t>
+          <t>2018-14614</t>
         </is>
       </c>
       <c r="W35" s="0" t="d">
@@ -4884,12 +5005,12 @@
       <c r="X35" s="0" t="d">
         <v>2018-09-07T00:00:00</v>
       </c>
-      <c r="Y35" s="0" t="inlineStr">
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4915,11 +5036,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9272</v>
+        <v>9273</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>CAIU9371128</t>
+          <t>TGHU9243375</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4979,13 +5100,13 @@
       </c>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>IN0013413</t>
+          <t>IN0013464</t>
         </is>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>2018-14614</t>
+          <t>2018-14623</t>
         </is>
       </c>
       <c r="W36" s="0" t="d">
@@ -4994,12 +5115,12 @@
       <c r="X36" s="0" t="d">
         <v>2018-09-07T00:00:00</v>
       </c>
-      <c r="Y36" s="0" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5025,11 +5146,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9273</v>
+        <v>9274</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>TGHU9243375</t>
+          <t>TCLU5793780</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5089,27 +5210,27 @@
       </c>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>IN0013464</t>
+          <t>IN0013418</t>
         </is>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>2018-14623</t>
+          <t>2018-15052</t>
         </is>
       </c>
       <c r="W37" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X37" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5135,11 +5256,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9274</v>
+        <v>9275</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>TCLU5793780</t>
+          <t>XINU8144495</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5199,27 +5320,27 @@
       </c>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>IN0013418</t>
+          <t>IN0013462</t>
         </is>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>2018-15052</t>
+          <t>2018-14390</t>
         </is>
       </c>
       <c r="W38" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="X38" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="Y38" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
+      <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5245,19 +5366,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9275</v>
+        <v>9277</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>XINU8144495</t>
+          <t>TCKU2025441</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -5277,17 +5398,17 @@
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2518/2018</t>
+          <t>2602/2018</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>GAZI AUTO TYRES</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5304,32 +5425,30 @@
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>CARBON BLACK</t>
-        </is>
-      </c>
-      <c r="T39" s="0" t="inlineStr">
-        <is>
-          <t>IN0013462</t>
-        </is>
+          <t>FISH MEAL</t>
+        </is>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>8097544</v>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>2018-14390</t>
+          <t>2018-14889</t>
         </is>
       </c>
       <c r="W39" s="0" t="d">
-        <v>2018-08-26T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X39" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="Y39" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
+      <c r="Z39" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5339,11 +5458,11 @@
       </c>
       <c r="AB39" s="0" t="inlineStr">
         <is>
-          <t>ONEYMAAU11798700</t>
+          <t>ONEYRICU93305700</t>
         </is>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="AD39" s="0"/>
       <c r="AE39" s="0" t="inlineStr">
@@ -5355,11 +5474,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9277</v>
+        <v>9278</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>TCKU2025441</t>
+          <t>NYKU3356123</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5418,12 +5537,12 @@
         </is>
       </c>
       <c r="T40" s="0" t="n">
-        <v>8097544</v>
+        <v>8097551</v>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>2018-14889</t>
+          <t>2018-14916</t>
         </is>
       </c>
       <c r="W40" s="0" t="d">
@@ -5432,12 +5551,12 @@
       <c r="X40" s="0" t="d">
         <v>2018-09-06T00:00:00</v>
       </c>
-      <c r="Y40" s="0" t="inlineStr">
+      <c r="Y40" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z40" s="0" t="inlineStr">
+      <c r="Z40" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5463,11 +5582,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9278</v>
+        <v>9279</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>NYKU3356123</t>
+          <t>TCLU3279833</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5526,12 +5645,12 @@
         </is>
       </c>
       <c r="T41" s="0" t="n">
-        <v>8097551</v>
+        <v>8097541</v>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0" t="inlineStr">
         <is>
-          <t>2018-14916</t>
+          <t>2018-14920</t>
         </is>
       </c>
       <c r="W41" s="0" t="d">
@@ -5540,12 +5659,12 @@
       <c r="X41" s="0" t="d">
         <v>2018-09-06T00:00:00</v>
       </c>
-      <c r="Y41" s="0" t="inlineStr">
+      <c r="Y41" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
+      <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5571,11 +5690,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9279</v>
+        <v>9280</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>TCLU3279833</t>
+          <t>BSIU2458495</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5634,26 +5753,26 @@
         </is>
       </c>
       <c r="T42" s="0" t="n">
-        <v>8097541</v>
+        <v>8097542</v>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>2018-14920</t>
+          <t>2018-14945</t>
         </is>
       </c>
       <c r="W42" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X42" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="Y42" s="0" t="inlineStr">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z42" s="0" t="inlineStr">
+      <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5679,11 +5798,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9280</v>
+        <v>9281</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>BSIU2458495</t>
+          <t>TRLU9061616</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5742,12 +5861,12 @@
         </is>
       </c>
       <c r="T43" s="0" t="n">
-        <v>8097542</v>
+        <v>8097545</v>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>2018-14945</t>
+          <t>2018-14950</t>
         </is>
       </c>
       <c r="W43" s="0" t="d">
@@ -5756,12 +5875,12 @@
       <c r="X43" s="0" t="d">
         <v>2018-09-07T00:00:00</v>
       </c>
-      <c r="Y43" s="0" t="inlineStr">
+      <c r="Y43" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
+      <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5787,11 +5906,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9281</v>
+        <v>9282</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>TRLU9061616</t>
+          <t>MOAU0744187</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5850,26 +5969,26 @@
         </is>
       </c>
       <c r="T44" s="0" t="n">
-        <v>8097545</v>
+        <v>8097546</v>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>2018-14950</t>
+          <t>2018-14919</t>
         </is>
       </c>
       <c r="W44" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X44" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="Y44" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
+      <c r="Z44" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5895,11 +6014,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9282</v>
+        <v>9283</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>MOAU0744187</t>
+          <t>TRHU2458075</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5958,12 +6077,12 @@
         </is>
       </c>
       <c r="T45" s="0" t="n">
-        <v>8097546</v>
+        <v>8097549</v>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0" t="inlineStr">
         <is>
-          <t>2018-14919</t>
+          <t>2018-15006</t>
         </is>
       </c>
       <c r="W45" s="0" t="d">
@@ -5972,12 +6091,12 @@
       <c r="X45" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y45" s="0" t="inlineStr">
+      <c r="Y45" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
+      <c r="Z45" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6003,11 +6122,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>TRHU2458075</t>
+          <t>TRHU2359323</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -6066,12 +6185,12 @@
         </is>
       </c>
       <c r="T46" s="0" t="n">
-        <v>8097549</v>
+        <v>8097547</v>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0" t="inlineStr">
         <is>
-          <t>2018-15006</t>
+          <t>2018-15019</t>
         </is>
       </c>
       <c r="W46" s="0" t="d">
@@ -6080,12 +6199,12 @@
       <c r="X46" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y46" s="0" t="inlineStr">
+      <c r="Y46" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z46" s="0" t="inlineStr">
+      <c r="Z46" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6111,11 +6230,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9284</v>
+        <v>9285</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>TRHU2359323</t>
+          <t>TRHU3945756</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6174,26 +6293,26 @@
         </is>
       </c>
       <c r="T47" s="0" t="n">
-        <v>8097547</v>
+        <v>8097543</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>2018-15019</t>
+          <t>2018-15107</t>
         </is>
       </c>
       <c r="W47" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X47" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
+        <v>2018-09-09T00:00:00</v>
+      </c>
+      <c r="Y47" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
+      <c r="Z47" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6219,11 +6338,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9285</v>
+        <v>9286</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>TRHU3945756</t>
+          <t>TRLU9760172</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6282,12 +6401,12 @@
         </is>
       </c>
       <c r="T48" s="0" t="n">
-        <v>8097543</v>
+        <v>8097548</v>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0" t="inlineStr">
         <is>
-          <t>2018-15107</t>
+          <t>2018-15024</t>
         </is>
       </c>
       <c r="W48" s="0" t="d">
@@ -6296,12 +6415,12 @@
       <c r="X48" s="0" t="d">
         <v>2018-09-09T00:00:00</v>
       </c>
-      <c r="Y48" s="0" t="inlineStr">
+      <c r="Y48" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z48" s="0" t="inlineStr">
+      <c r="Z48" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6327,19 +6446,19 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9286</v>
+        <v>9386</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>TRLU9760172</t>
+          <t>TRLU7499033</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -6359,17 +6478,17 @@
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>KOTA BINTANG</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>2602/2018</t>
+          <t>2620/2018</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>AMIN TRADING CORPORATION</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -6386,16 +6505,18 @@
       <c r="R49" s="0"/>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
-        </is>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>8097548</v>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="T49" s="0" t="inlineStr">
+        <is>
+          <t>MOLBX76422</t>
+        </is>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0" t="inlineStr">
         <is>
-          <t>2018-15024</t>
+          <t>2018-15094</t>
         </is>
       </c>
       <c r="W49" s="0" t="d">
@@ -6404,12 +6525,12 @@
       <c r="X49" s="0" t="d">
         <v>2018-09-09T00:00:00</v>
       </c>
-      <c r="Y49" s="0" t="inlineStr">
+      <c r="Y49" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
+      <c r="Z49" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6419,11 +6540,11 @@
       </c>
       <c r="AB49" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU93305700</t>
+          <t>ONEYSUBU09120800</t>
         </is>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="AD49" s="0"/>
       <c r="AE49" s="0" t="inlineStr">
@@ -6435,11 +6556,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9386</v>
+        <v>9387</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>TRLU7499033</t>
+          <t>SEGU4453787</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6499,13 +6620,13 @@
       </c>
       <c r="T50" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76422</t>
+          <t>MOLBX76461</t>
         </is>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0" t="inlineStr">
         <is>
-          <t>2018-15094</t>
+          <t>2018-15096</t>
         </is>
       </c>
       <c r="W50" s="0" t="d">
@@ -6514,12 +6635,12 @@
       <c r="X50" s="0" t="d">
         <v>2018-09-09T00:00:00</v>
       </c>
-      <c r="Y50" s="0" t="inlineStr">
+      <c r="Y50" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z50" s="0" t="inlineStr">
+      <c r="Z50" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6545,11 +6666,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9387</v>
+        <v>9388</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>SEGU4453787</t>
+          <t>CAIU9497672</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6609,13 +6730,13 @@
       </c>
       <c r="T51" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76461</t>
+          <t>MOLBX76446</t>
         </is>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>2018-15096</t>
+          <t>2018-15097</t>
         </is>
       </c>
       <c r="W51" s="0" t="d">
@@ -6624,12 +6745,12 @@
       <c r="X51" s="0" t="d">
         <v>2018-09-09T00:00:00</v>
       </c>
-      <c r="Y51" s="0" t="inlineStr">
+      <c r="Y51" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
+      <c r="Z51" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6655,11 +6776,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9388</v>
+        <v>9389</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>CAIU9497672</t>
+          <t>TCLU9612411</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6719,27 +6840,27 @@
       </c>
       <c r="T52" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76446</t>
+          <t>MOLBX76421</t>
         </is>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0" t="inlineStr">
         <is>
-          <t>2018-15097</t>
+          <t>2018-15112</t>
         </is>
       </c>
       <c r="W52" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X52" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
-      </c>
-      <c r="Y52" s="0" t="inlineStr">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="Y52" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z52" s="0" t="inlineStr">
+      <c r="Z52" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6765,11 +6886,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9389</v>
+        <v>9390</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>TCLU9612411</t>
+          <t>MOFU0652966</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6777,7 +6898,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -6807,7 +6928,7 @@
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>AMIN TRADING CORPORATION</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -6827,29 +6948,27 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T53" s="0" t="inlineStr">
-        <is>
-          <t>MOLBX76421</t>
-        </is>
+      <c r="T53" s="0" t="n">
+        <v>301268</v>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0" t="inlineStr">
         <is>
-          <t>2018-15112</t>
+          <t>2018-15229</t>
         </is>
       </c>
       <c r="W53" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X53" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="Y53" s="0" t="inlineStr">
+        <v>2018-09-11T00:00:00</v>
+      </c>
+      <c r="Y53" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z53" s="0" t="inlineStr">
+      <c r="Z53" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6859,11 +6978,11 @@
       </c>
       <c r="AB53" s="0" t="inlineStr">
         <is>
-          <t>ONEYSUBU09120800</t>
+          <t>ONEYRICUC5999800</t>
         </is>
       </c>
       <c r="AC53" s="0" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AD53" s="0"/>
       <c r="AE53" s="0" t="inlineStr">
@@ -6875,11 +6994,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9390</v>
+        <v>9391</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>MOFU0652966</t>
+          <t>TCLU4740636</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6938,26 +7057,26 @@
         </is>
       </c>
       <c r="T54" s="0" t="n">
-        <v>301268</v>
+        <v>10235</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0" t="inlineStr">
         <is>
-          <t>2018-15229</t>
+          <t>2018-15413</t>
         </is>
       </c>
       <c r="W54" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X54" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
-      </c>
-      <c r="Y54" s="0" t="inlineStr">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="Y54" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z54" s="0" t="inlineStr">
+      <c r="Z54" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6983,15 +7102,15 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9391</v>
+        <v>9496</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>TCLU4740636</t>
+          <t>NYKU3128015</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
@@ -7015,17 +7134,17 @@
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>KOTA BINTANG</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>2620/2018</t>
+          <t>2735/2018</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -7042,30 +7161,30 @@
       <c r="R55" s="0"/>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>FISH MEAL</t>
         </is>
       </c>
       <c r="T55" s="0" t="n">
-        <v>10235</v>
+        <v>8097552</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0" t="inlineStr">
         <is>
-          <t>2018-15413</t>
+          <t>2018-15330</t>
         </is>
       </c>
       <c r="W55" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="X55" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="Y55" s="0" t="inlineStr">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="Y55" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z55" s="0" t="inlineStr">
+      <c r="Z55" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7075,11 +7194,11 @@
       </c>
       <c r="AB55" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUC5999800</t>
+          <t>ONEYRICU93305701</t>
         </is>
       </c>
       <c r="AC55" s="0" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AD55" s="0"/>
       <c r="AE55" s="0" t="inlineStr">
@@ -7091,11 +7210,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9496</v>
+        <v>9497</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>NYKU3128015</t>
+          <t>TRHU2703362</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7154,12 +7273,12 @@
         </is>
       </c>
       <c r="T56" s="0" t="n">
-        <v>8097552</v>
+        <v>8097550</v>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0" t="inlineStr">
         <is>
-          <t>2018-15330</t>
+          <t>2018-15331</t>
         </is>
       </c>
       <c r="W56" s="0" t="d">
@@ -7168,12 +7287,12 @@
       <c r="X56" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="Y56" s="0" t="inlineStr">
+      <c r="Y56" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
+      <c r="Z56" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7199,15 +7318,15 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9497</v>
+        <v>9498</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>TRHU2703362</t>
+          <t>DRYU4084532</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
@@ -7241,7 +7360,7 @@
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>AL BARAKA POULTRY &amp; FISH FEED IND.</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -7258,16 +7377,16 @@
       <c r="R57" s="0"/>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
+          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
         </is>
       </c>
       <c r="T57" s="0" t="n">
-        <v>8097550</v>
+        <v>21788177</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>2018-15331</t>
+          <t>2018-15336</t>
         </is>
       </c>
       <c r="W57" s="0" t="d">
@@ -7276,12 +7395,12 @@
       <c r="X57" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="Y57" s="0" t="inlineStr">
+      <c r="Y57" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z57" s="0" t="inlineStr">
+      <c r="Z57" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7291,11 +7410,11 @@
       </c>
       <c r="AB57" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU93305701</t>
+          <t>ONEYRICUE9430800</t>
         </is>
       </c>
       <c r="AC57" s="0" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AD57" s="0"/>
       <c r="AE57" s="0" t="inlineStr">
@@ -7307,11 +7426,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9498</v>
+        <v>9499</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>DRYU4084532</t>
+          <t>NYKU0713361</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7319,7 +7438,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -7370,12 +7489,12 @@
         </is>
       </c>
       <c r="T58" s="0" t="n">
-        <v>21788177</v>
+        <v>21788176</v>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0" t="inlineStr">
         <is>
-          <t>2018-15336</t>
+          <t>2018-15335</t>
         </is>
       </c>
       <c r="W58" s="0" t="d">
@@ -7384,12 +7503,12 @@
       <c r="X58" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="Y58" s="0" t="inlineStr">
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
+      <c r="Z58" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7415,11 +7534,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9499</v>
+        <v>9549</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>NYKU0713361</t>
+          <t>TCNU7867920</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7447,17 +7566,17 @@
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>2735/2018</t>
+          <t>2704/2018</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>AL BARAKA POULTRY &amp; FISH FEED IND.</t>
+          <t>SONALI PAPER &amp; BOARD MILLS LTD</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7474,30 +7593,32 @@
       <c r="R59" s="0"/>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
-        </is>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>21788176</v>
+          <t>WASTE  PAPER</t>
+        </is>
+      </c>
+      <c r="T59" s="0" t="inlineStr">
+        <is>
+          <t>LKAA11734</t>
+        </is>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0" t="inlineStr">
         <is>
-          <t>2018-15335</t>
+          <t>2018-15364</t>
         </is>
       </c>
       <c r="W59" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
       <c r="X59" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="Y59" s="0" t="inlineStr">
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z59" s="0" t="inlineStr">
+      <c r="Z59" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7507,11 +7628,11 @@
       </c>
       <c r="AB59" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUE9430800</t>
+          <t>ONEYCMBU07003700</t>
         </is>
       </c>
       <c r="AC59" s="0" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AD59" s="0"/>
       <c r="AE59" s="0" t="inlineStr">
@@ -7523,11 +7644,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9549</v>
+        <v>9550</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>TCNU7867920</t>
+          <t>KKFU7555457</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7587,27 +7708,27 @@
       </c>
       <c r="T60" s="0" t="inlineStr">
         <is>
-          <t>LKAA11734</t>
+          <t>LKAA11739</t>
         </is>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0" t="inlineStr">
         <is>
-          <t>2018-15364</t>
+          <t>2018-15412</t>
         </is>
       </c>
       <c r="W60" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="X60" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
+      <c r="Z60" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7633,11 +7754,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9550</v>
+        <v>9551</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>KKFU7555457</t>
+          <t>TCNU7614027</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7697,13 +7818,13 @@
       </c>
       <c r="T61" s="0" t="inlineStr">
         <is>
-          <t>LKAA11739</t>
+          <t>LKAA11736</t>
         </is>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0" t="inlineStr">
         <is>
-          <t>2018-15412</t>
+          <t>2018-15416</t>
         </is>
       </c>
       <c r="W61" s="0" t="d">
@@ -7712,12 +7833,12 @@
       <c r="X61" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y61" s="0" t="inlineStr">
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
+      <c r="Z61" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7743,11 +7864,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9551</v>
+        <v>9552</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>TCNU7614027</t>
+          <t>TCLU8836438</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7807,13 +7928,13 @@
       </c>
       <c r="T62" s="0" t="inlineStr">
         <is>
-          <t>LKAA11736</t>
+          <t>LKAA11721</t>
         </is>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>2018-15416</t>
+          <t>2018-15415</t>
         </is>
       </c>
       <c r="W62" s="0" t="d">
@@ -7822,12 +7943,12 @@
       <c r="X62" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y62" s="0" t="inlineStr">
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z62" s="0" t="inlineStr">
+      <c r="Z62" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7853,11 +7974,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9552</v>
+        <v>9553</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>TCLU8836438</t>
+          <t>NYKU5770127</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7917,13 +8038,13 @@
       </c>
       <c r="T63" s="0" t="inlineStr">
         <is>
-          <t>LKAA11721</t>
+          <t>LKAA11738</t>
         </is>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>2018-15415</t>
+          <t>2018-15411</t>
         </is>
       </c>
       <c r="W63" s="0" t="d">
@@ -7932,12 +8053,12 @@
       <c r="X63" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y63" s="0" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z63" s="0" t="inlineStr">
+      <c r="Z63" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7963,11 +8084,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9553</v>
+        <v>9554</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>NYKU5770127</t>
+          <t>TCLU7942034</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -8027,13 +8148,13 @@
       </c>
       <c r="T64" s="0" t="inlineStr">
         <is>
-          <t>LKAA11738</t>
+          <t>LKAA11733</t>
         </is>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0" t="inlineStr">
         <is>
-          <t>2018-15411</t>
+          <t>2018-15418</t>
         </is>
       </c>
       <c r="W64" s="0" t="d">
@@ -8042,12 +8163,12 @@
       <c r="X64" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y64" s="0" t="inlineStr">
+      <c r="Y64" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
+      <c r="Z64" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8073,11 +8194,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9554</v>
+        <v>9555</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>TCLU7942034</t>
+          <t>TEMU7199034</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8137,13 +8258,13 @@
       </c>
       <c r="T65" s="0" t="inlineStr">
         <is>
-          <t>LKAA11733</t>
+          <t>LKAA11732</t>
         </is>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0" t="inlineStr">
         <is>
-          <t>2018-15418</t>
+          <t>2018-15430</t>
         </is>
       </c>
       <c r="W65" s="0" t="d">
@@ -8152,12 +8273,12 @@
       <c r="X65" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y65" s="0" t="inlineStr">
+      <c r="Y65" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z65" s="0" t="inlineStr">
+      <c r="Z65" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8183,11 +8304,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9555</v>
+        <v>9556</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>TEMU7199034</t>
+          <t>TCNU4026950</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8247,13 +8368,13 @@
       </c>
       <c r="T66" s="0" t="inlineStr">
         <is>
-          <t>LKAA11732</t>
+          <t>LKAA11740</t>
         </is>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0" t="inlineStr">
         <is>
-          <t>2018-15430</t>
+          <t>2018-15414</t>
         </is>
       </c>
       <c r="W66" s="0" t="d">
@@ -8262,12 +8383,12 @@
       <c r="X66" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y66" s="0" t="inlineStr">
+      <c r="Y66" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z66" s="0" t="inlineStr">
+      <c r="Z66" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8293,11 +8414,11 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>9556</v>
+        <v>9557</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>TCNU4026950</t>
+          <t>TCNU7828311</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
@@ -8357,13 +8478,13 @@
       </c>
       <c r="T67" s="0" t="inlineStr">
         <is>
-          <t>LKAA11740</t>
+          <t>LKAA11731</t>
         </is>
       </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0" t="inlineStr">
         <is>
-          <t>2018-15414</t>
+          <t>2018-15428</t>
         </is>
       </c>
       <c r="W67" s="0" t="d">
@@ -8372,12 +8493,12 @@
       <c r="X67" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y67" s="0" t="inlineStr">
+      <c r="Y67" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z67" s="0" t="inlineStr">
+      <c r="Z67" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8403,11 +8524,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>9557</v>
+        <v>9558</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>TCNU7828311</t>
+          <t>TCLU1535031</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8467,13 +8588,13 @@
       </c>
       <c r="T68" s="0" t="inlineStr">
         <is>
-          <t>LKAA11731</t>
+          <t>LKAA11735</t>
         </is>
       </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0" t="inlineStr">
         <is>
-          <t>2018-15428</t>
+          <t>2018-15422</t>
         </is>
       </c>
       <c r="W68" s="0" t="d">
@@ -8482,12 +8603,12 @@
       <c r="X68" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y68" s="0" t="inlineStr">
+      <c r="Y68" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z68" s="0" t="inlineStr">
+      <c r="Z68" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8513,11 +8634,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>9558</v>
+        <v>9559</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>TCLU1535031</t>
+          <t>UETU5336031</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8577,13 +8698,13 @@
       </c>
       <c r="T69" s="0" t="inlineStr">
         <is>
-          <t>LKAA11735</t>
+          <t>LKAA11737</t>
         </is>
       </c>
       <c r="U69" s="0"/>
       <c r="V69" s="0" t="inlineStr">
         <is>
-          <t>2018-15422</t>
+          <t>2018-15420</t>
         </is>
       </c>
       <c r="W69" s="0" t="d">
@@ -8592,12 +8713,12 @@
       <c r="X69" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y69" s="0" t="inlineStr">
+      <c r="Y69" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
+      <c r="Z69" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8623,11 +8744,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>9559</v>
+        <v>9590</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>UETU5336031</t>
+          <t>ONEU0099076</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8665,7 +8786,7 @@
       </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>SONALI PAPER &amp; BOARD MILLS LTD</t>
+          <t>PROVITA FEED LTD</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
@@ -8682,32 +8803,32 @@
       <c r="R70" s="0"/>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>WASTE  PAPER</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
         <is>
-          <t>LKAA11737</t>
+          <t>IN0045073</t>
         </is>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0" t="inlineStr">
         <is>
-          <t>2018-15420</t>
+          <t>2018-15393</t>
         </is>
       </c>
       <c r="W70" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="X70" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y70" s="0" t="inlineStr">
+      <c r="Y70" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z70" s="0" t="inlineStr">
+      <c r="Z70" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8717,11 +8838,11 @@
       </c>
       <c r="AB70" s="0" t="inlineStr">
         <is>
-          <t>ONEYCMBU07003700</t>
+          <t>ONEYBLRU02906400</t>
         </is>
       </c>
       <c r="AC70" s="0" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD70" s="0"/>
       <c r="AE70" s="0" t="inlineStr">
@@ -8733,19 +8854,19 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>9590</v>
+        <v>9649</v>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>ONEU0099076</t>
+          <t>TEMU5133280</t>
         </is>
       </c>
       <c r="C71" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -8765,17 +8886,17 @@
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>KOTA ARIF</t>
         </is>
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>2704/2018</t>
+          <t>2680/2018</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>PROVITA FEED LTD</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K71" s="0" t="inlineStr">
@@ -8792,32 +8913,30 @@
       <c r="R71" s="0"/>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
-        </is>
-      </c>
-      <c r="T71" s="0" t="inlineStr">
-        <is>
-          <t>IN0045073</t>
-        </is>
+          <t>FISH MEAL</t>
+        </is>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>8097522</v>
       </c>
       <c r="U71" s="0"/>
       <c r="V71" s="0" t="inlineStr">
         <is>
-          <t>2018-15393</t>
+          <t>2018-15513</t>
         </is>
       </c>
       <c r="W71" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X71" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="Y71" s="0" t="inlineStr">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="Y71" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z71" s="0" t="inlineStr">
+      <c r="Z71" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8827,11 +8946,11 @@
       </c>
       <c r="AB71" s="0" t="inlineStr">
         <is>
-          <t>ONEYBLRU02906400</t>
+          <t>ONEYRICU88917600</t>
         </is>
       </c>
       <c r="AC71" s="0" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AD71" s="0"/>
       <c r="AE71" s="0" t="inlineStr">
@@ -8843,11 +8962,11 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>9649</v>
+        <v>9650</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>TEMU5133280</t>
+          <t>CAIU2005976</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
@@ -8906,12 +9025,12 @@
         </is>
       </c>
       <c r="T72" s="0" t="n">
-        <v>8097522</v>
+        <v>8097531</v>
       </c>
       <c r="U72" s="0"/>
       <c r="V72" s="0" t="inlineStr">
         <is>
-          <t>2018-15513</t>
+          <t>2018-15517</t>
         </is>
       </c>
       <c r="W72" s="0" t="d">
@@ -8920,12 +9039,12 @@
       <c r="X72" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y72" s="0" t="inlineStr">
+      <c r="Y72" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z72" s="0" t="inlineStr">
+      <c r="Z72" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8951,11 +9070,11 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>9650</v>
+        <v>9651</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>CAIU2005976</t>
+          <t>TCLU7207071</t>
         </is>
       </c>
       <c r="C73" s="0" t="n">
@@ -9014,12 +9133,12 @@
         </is>
       </c>
       <c r="T73" s="0" t="n">
-        <v>8097531</v>
+        <v>8097532</v>
       </c>
       <c r="U73" s="0"/>
       <c r="V73" s="0" t="inlineStr">
         <is>
-          <t>2018-15517</t>
+          <t>2018-15519</t>
         </is>
       </c>
       <c r="W73" s="0" t="d">
@@ -9028,12 +9147,12 @@
       <c r="X73" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y73" s="0" t="inlineStr">
+      <c r="Y73" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z73" s="0" t="inlineStr">
+      <c r="Z73" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9059,11 +9178,11 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>9651</v>
+        <v>9652</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>TCLU7207071</t>
+          <t>TRHU2316316</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
@@ -9122,12 +9241,12 @@
         </is>
       </c>
       <c r="T74" s="0" t="n">
-        <v>8097532</v>
+        <v>8097524</v>
       </c>
       <c r="U74" s="0"/>
       <c r="V74" s="0" t="inlineStr">
         <is>
-          <t>2018-15519</t>
+          <t>2018-15514</t>
         </is>
       </c>
       <c r="W74" s="0" t="d">
@@ -9136,12 +9255,12 @@
       <c r="X74" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y74" s="0" t="inlineStr">
+      <c r="Y74" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z74" s="0" t="inlineStr">
+      <c r="Z74" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9167,11 +9286,11 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>9652</v>
+        <v>9653</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>TRHU2316316</t>
+          <t>TRHU2438736</t>
         </is>
       </c>
       <c r="C75" s="0" t="n">
@@ -9230,12 +9349,12 @@
         </is>
       </c>
       <c r="T75" s="0" t="n">
-        <v>8097524</v>
+        <v>8097526</v>
       </c>
       <c r="U75" s="0"/>
       <c r="V75" s="0" t="inlineStr">
         <is>
-          <t>2018-15514</t>
+          <t>2018-15520</t>
         </is>
       </c>
       <c r="W75" s="0" t="d">
@@ -9244,12 +9363,12 @@
       <c r="X75" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y75" s="0" t="inlineStr">
+      <c r="Y75" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z75" s="0" t="inlineStr">
+      <c r="Z75" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9275,11 +9394,11 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>9653</v>
+        <v>9654</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>TRHU2438736</t>
+          <t>KKTU7316204</t>
         </is>
       </c>
       <c r="C76" s="0" t="n">
@@ -9338,12 +9457,12 @@
         </is>
       </c>
       <c r="T76" s="0" t="n">
-        <v>8097526</v>
+        <v>8097527</v>
       </c>
       <c r="U76" s="0"/>
       <c r="V76" s="0" t="inlineStr">
         <is>
-          <t>2018-15520</t>
+          <t>2018-15518</t>
         </is>
       </c>
       <c r="W76" s="0" t="d">
@@ -9352,12 +9471,12 @@
       <c r="X76" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y76" s="0" t="inlineStr">
+      <c r="Y76" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z76" s="0" t="inlineStr">
+      <c r="Z76" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9383,11 +9502,11 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>9654</v>
+        <v>9655</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>KKTU7316204</t>
+          <t>TRHU1866299</t>
         </is>
       </c>
       <c r="C77" s="0" t="n">
@@ -9446,12 +9565,12 @@
         </is>
       </c>
       <c r="T77" s="0" t="n">
-        <v>8097527</v>
+        <v>8097521</v>
       </c>
       <c r="U77" s="0"/>
       <c r="V77" s="0" t="inlineStr">
         <is>
-          <t>2018-15518</t>
+          <t>2018-15533</t>
         </is>
       </c>
       <c r="W77" s="0" t="d">
@@ -9460,12 +9579,12 @@
       <c r="X77" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y77" s="0" t="inlineStr">
+      <c r="Y77" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z77" s="0" t="inlineStr">
+      <c r="Z77" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9491,11 +9610,11 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>9655</v>
+        <v>9656</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>TRHU1866299</t>
+          <t>TRLU3939983</t>
         </is>
       </c>
       <c r="C78" s="0" t="n">
@@ -9554,12 +9673,12 @@
         </is>
       </c>
       <c r="T78" s="0" t="n">
-        <v>8097521</v>
+        <v>8097528</v>
       </c>
       <c r="U78" s="0"/>
       <c r="V78" s="0" t="inlineStr">
         <is>
-          <t>2018-15533</t>
+          <t>2018-15545</t>
         </is>
       </c>
       <c r="W78" s="0" t="d">
@@ -9568,12 +9687,12 @@
       <c r="X78" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y78" s="0" t="inlineStr">
+      <c r="Y78" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z78" s="0" t="inlineStr">
+      <c r="Z78" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9599,11 +9718,11 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>9656</v>
+        <v>9657</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>TRLU3939983</t>
+          <t>TRHU2714710</t>
         </is>
       </c>
       <c r="C79" s="0" t="n">
@@ -9662,12 +9781,12 @@
         </is>
       </c>
       <c r="T79" s="0" t="n">
-        <v>8097528</v>
+        <v>8097525</v>
       </c>
       <c r="U79" s="0"/>
       <c r="V79" s="0" t="inlineStr">
         <is>
-          <t>2018-15545</t>
+          <t>2018-15544</t>
         </is>
       </c>
       <c r="W79" s="0" t="d">
@@ -9676,12 +9795,12 @@
       <c r="X79" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y79" s="0" t="inlineStr">
+      <c r="Y79" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z79" s="0" t="inlineStr">
+      <c r="Z79" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9707,11 +9826,11 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>9657</v>
+        <v>9658</v>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>TRHU2714710</t>
+          <t>NYKU9772684</t>
         </is>
       </c>
       <c r="C80" s="0" t="n">
@@ -9770,12 +9889,12 @@
         </is>
       </c>
       <c r="T80" s="0" t="n">
-        <v>8097525</v>
+        <v>8097529</v>
       </c>
       <c r="U80" s="0"/>
       <c r="V80" s="0" t="inlineStr">
         <is>
-          <t>2018-15544</t>
+          <t>2018-15543</t>
         </is>
       </c>
       <c r="W80" s="0" t="d">
@@ -9784,12 +9903,12 @@
       <c r="X80" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y80" s="0" t="inlineStr">
+      <c r="Y80" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z80" s="0" t="inlineStr">
+      <c r="Z80" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9815,11 +9934,11 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>9658</v>
+        <v>9659</v>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>NYKU9772684</t>
+          <t>MOAU1453606</t>
         </is>
       </c>
       <c r="C81" s="0" t="n">
@@ -9878,12 +9997,12 @@
         </is>
       </c>
       <c r="T81" s="0" t="n">
-        <v>8097529</v>
+        <v>8097530</v>
       </c>
       <c r="U81" s="0"/>
       <c r="V81" s="0" t="inlineStr">
         <is>
-          <t>2018-15543</t>
+          <t>2018-15547</t>
         </is>
       </c>
       <c r="W81" s="0" t="d">
@@ -9892,12 +10011,12 @@
       <c r="X81" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y81" s="0" t="inlineStr">
+      <c r="Y81" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z81" s="0" t="inlineStr">
+      <c r="Z81" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -9923,11 +10042,11 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>9659</v>
+        <v>9660</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>MOAU1453606</t>
+          <t>TCLU3428325</t>
         </is>
       </c>
       <c r="C82" s="0" t="n">
@@ -9986,12 +10105,12 @@
         </is>
       </c>
       <c r="T82" s="0" t="n">
-        <v>8097530</v>
+        <v>8097523</v>
       </c>
       <c r="U82" s="0"/>
       <c r="V82" s="0" t="inlineStr">
         <is>
-          <t>2018-15547</t>
+          <t>2018-15546</t>
         </is>
       </c>
       <c r="W82" s="0" t="d">
@@ -10000,12 +10119,12 @@
       <c r="X82" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
-      <c r="Y82" s="0" t="inlineStr">
+      <c r="Y82" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z82" s="0" t="inlineStr">
+      <c r="Z82" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10031,19 +10150,19 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>9660</v>
+        <v>9726</v>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>TCLU3428325</t>
+          <t>NYKU5927113</t>
         </is>
       </c>
       <c r="C83" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -10063,17 +10182,17 @@
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>KOTA ARIF</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="I83" s="0" t="inlineStr">
         <is>
-          <t>2680/2018</t>
+          <t>2767/2018</t>
         </is>
       </c>
       <c r="J83" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>GREEN LINE SHIPPING</t>
         </is>
       </c>
       <c r="K83" s="0" t="inlineStr">
@@ -10090,30 +10209,30 @@
       <c r="R83" s="0"/>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="T83" s="0" t="n">
-        <v>8097523</v>
+        <v>1186395</v>
       </c>
       <c r="U83" s="0"/>
       <c r="V83" s="0" t="inlineStr">
         <is>
-          <t>2018-15546</t>
+          <t>2018-15631</t>
         </is>
       </c>
       <c r="W83" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X83" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Y83" s="0" t="inlineStr">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="Y83" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z83" s="0" t="inlineStr">
+      <c r="Z83" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10123,11 +10242,11 @@
       </c>
       <c r="AB83" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU88917600</t>
+          <t>ONEYRICUE9517700</t>
         </is>
       </c>
       <c r="AC83" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AD83" s="0"/>
       <c r="AE83" s="0" t="inlineStr">
@@ -10139,11 +10258,11 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>9726</v>
+        <v>9727</v>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>NYKU5927113</t>
+          <t>TCLU8945758</t>
         </is>
       </c>
       <c r="C84" s="0" t="n">
@@ -10202,12 +10321,12 @@
         </is>
       </c>
       <c r="T84" s="0" t="n">
-        <v>1186395</v>
+        <v>1186396</v>
       </c>
       <c r="U84" s="0"/>
       <c r="V84" s="0" t="inlineStr">
         <is>
-          <t>2018-15631</t>
+          <t>2018-15633</t>
         </is>
       </c>
       <c r="W84" s="0" t="d">
@@ -10216,12 +10335,12 @@
       <c r="X84" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y84" s="0" t="inlineStr">
+      <c r="Y84" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z84" s="0" t="inlineStr">
+      <c r="Z84" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10247,11 +10366,11 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>9727</v>
+        <v>9728</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>TCLU8945758</t>
+          <t>TCLU4215941</t>
         </is>
       </c>
       <c r="C85" s="0" t="n">
@@ -10259,7 +10378,7 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
@@ -10310,12 +10429,12 @@
         </is>
       </c>
       <c r="T85" s="0" t="n">
-        <v>1186396</v>
+        <v>1186399</v>
       </c>
       <c r="U85" s="0"/>
       <c r="V85" s="0" t="inlineStr">
         <is>
-          <t>2018-15633</t>
+          <t>2018-15634</t>
         </is>
       </c>
       <c r="W85" s="0" t="d">
@@ -10324,12 +10443,12 @@
       <c r="X85" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y85" s="0" t="inlineStr">
+      <c r="Y85" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z85" s="0" t="inlineStr">
+      <c r="Z85" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10355,11 +10474,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>9728</v>
+        <v>9729</v>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>TCLU4215941</t>
+          <t>TCLU4684620</t>
         </is>
       </c>
       <c r="C86" s="0" t="n">
@@ -10418,12 +10537,12 @@
         </is>
       </c>
       <c r="T86" s="0" t="n">
-        <v>1186399</v>
+        <v>1186398</v>
       </c>
       <c r="U86" s="0"/>
       <c r="V86" s="0" t="inlineStr">
         <is>
-          <t>2018-15634</t>
+          <t>2018-15632</t>
         </is>
       </c>
       <c r="W86" s="0" t="d">
@@ -10432,12 +10551,12 @@
       <c r="X86" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y86" s="0" t="inlineStr">
+      <c r="Y86" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z86" s="0" t="inlineStr">
+      <c r="Z86" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10463,11 +10582,11 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>9729</v>
+        <v>9730</v>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>TCLU4684620</t>
+          <t>TCNU4694142</t>
         </is>
       </c>
       <c r="C87" s="0" t="n">
@@ -10475,7 +10594,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -10495,17 +10614,17 @@
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>CALA PAGURO</t>
         </is>
       </c>
       <c r="I87" s="0" t="inlineStr">
         <is>
-          <t>2767/2018</t>
+          <t>2775/2018</t>
         </is>
       </c>
       <c r="J87" s="0" t="inlineStr">
         <is>
-          <t>GREEN LINE SHIPPING</t>
+          <t>S.M. INTERNATIONAL</t>
         </is>
       </c>
       <c r="K87" s="0" t="inlineStr">
@@ -10522,30 +10641,32 @@
       <c r="R87" s="0"/>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
-        </is>
-      </c>
-      <c r="T87" s="0" t="n">
-        <v>1186398</v>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="T87" s="0" t="inlineStr">
+        <is>
+          <t>MOLBX75788</t>
+        </is>
       </c>
       <c r="U87" s="0"/>
       <c r="V87" s="0" t="inlineStr">
         <is>
-          <t>2018-15632</t>
+          <t>2018-15638</t>
         </is>
       </c>
       <c r="W87" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="X87" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y87" s="0" t="inlineStr">
+      <c r="Y87" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z87" s="0" t="inlineStr">
+      <c r="Z87" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10555,11 +10676,11 @@
       </c>
       <c r="AB87" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUE9517700</t>
+          <t>ONEYSUBU09121900</t>
         </is>
       </c>
       <c r="AC87" s="0" t="n">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="AD87" s="0"/>
       <c r="AE87" s="0" t="inlineStr">
@@ -10571,11 +10692,11 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>9730</v>
+        <v>9732</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>TCNU4694142</t>
+          <t>TCLU5363481</t>
         </is>
       </c>
       <c r="C88" s="0" t="n">
@@ -10603,17 +10724,17 @@
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>CALA PAGURO</t>
+          <t>KOTA ARIF</t>
         </is>
       </c>
       <c r="I88" s="0" t="inlineStr">
         <is>
-          <t>2775/2018</t>
+          <t>2680/2018</t>
         </is>
       </c>
       <c r="J88" s="0" t="inlineStr">
         <is>
-          <t>S.M. INTERNATIONAL</t>
+          <t>C.B.C CORPORATION</t>
         </is>
       </c>
       <c r="K88" s="0" t="inlineStr">
@@ -10630,32 +10751,32 @@
       <c r="R88" s="0"/>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CARBON BLACK</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
         <is>
-          <t>MOLBX75788</t>
+          <t>CNA498593</t>
         </is>
       </c>
       <c r="U88" s="0"/>
       <c r="V88" s="0" t="inlineStr">
         <is>
-          <t>2018-15638</t>
+          <t>2018-15651</t>
         </is>
       </c>
       <c r="W88" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="X88" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y88" s="0" t="inlineStr">
+      <c r="Y88" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z88" s="0" t="inlineStr">
+      <c r="Z88" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -10665,11 +10786,11 @@
       </c>
       <c r="AB88" s="0" t="inlineStr">
         <is>
-          <t>ONEYSUBU09121900</t>
+          <t>ONEYTA8PI0444900</t>
         </is>
       </c>
       <c r="AC88" s="0" t="n">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="AD88" s="0"/>
       <c r="AE88" s="0" t="inlineStr">
@@ -10678,116 +10799,6 @@
         </is>
       </c>
       <c r="AF88" s="0"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="n">
-        <v>9732</v>
-      </c>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>TCLU5363481</t>
-        </is>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D89" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E89" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G89" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H89" s="0" t="inlineStr">
-        <is>
-          <t>KOTA ARIF</t>
-        </is>
-      </c>
-      <c r="I89" s="0" t="inlineStr">
-        <is>
-          <t>2680/2018</t>
-        </is>
-      </c>
-      <c r="J89" s="0" t="inlineStr">
-        <is>
-          <t>C.B.C CORPORATION</t>
-        </is>
-      </c>
-      <c r="K89" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L89" s="0"/>
-      <c r="M89" s="0"/>
-      <c r="N89" s="0"/>
-      <c r="O89" s="0"/>
-      <c r="P89" s="0"/>
-      <c r="Q89" s="0"/>
-      <c r="R89" s="0"/>
-      <c r="S89" s="0" t="inlineStr">
-        <is>
-          <t>CARBON BLACK</t>
-        </is>
-      </c>
-      <c r="T89" s="0" t="inlineStr">
-        <is>
-          <t>CNA498593</t>
-        </is>
-      </c>
-      <c r="U89" s="0"/>
-      <c r="V89" s="0" t="inlineStr">
-        <is>
-          <t>2018-15651</t>
-        </is>
-      </c>
-      <c r="W89" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="X89" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="Y89" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z89" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="0" t="inlineStr">
-        <is>
-          <t>ONEYTA8PI0444900</t>
-        </is>
-      </c>
-      <c r="AC89" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD89" s="0"/>
-      <c r="AE89" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF89" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -10810,15 +10821,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -10835,78 +10846,109 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Laden Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>ONB</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -10922,11 +10964,11 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-GP</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -10944,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -10960,11 +11002,11 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>40-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -10982,44 +11024,6 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
         <v>49</v>
       </c>
     </row>
@@ -11044,13 +11048,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -11058,20 +11062,20 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -11081,167 +11085,165 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCEAN NETWORK EXPRESS </t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCEAN NETWORK EXPRESS </t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
